--- a/uploaded/pok/REV_DIPA_4_2020-master.xlsx
+++ b/uploaded/pok/REV_DIPA_4_2020-master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rifki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02F2E61-D7E7-4C38-91D0-5D899AD31B79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0F87C5-1FAC-4009-9DCD-1D827E18A439}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1475,10 +1475,10 @@
     <t>Tidak Tahu</t>
   </si>
   <si>
-    <t xml:space="preserve">    - Pengadaan Keyboard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    - Pengadaan PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Pengadaan Mouse</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1741,7 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1917,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C7" s="1">
         <v>13</v>
@@ -1943,7 +1943,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C8" s="1">
         <v>13</v>

--- a/uploaded/pok/REV_DIPA_4_2020-master.xlsx
+++ b/uploaded/pok/REV_DIPA_4_2020-master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rifki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0F87C5-1FAC-4009-9DCD-1D827E18A439}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACCF521-4C26-4CA0-9328-51EADE81484C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,12 +103,6 @@
     <t>Pengadaan peralatan fasilitas perkantoran</t>
   </si>
   <si>
-    <t xml:space="preserve">    - Pengandaan Printer Kartu Pengenal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    - Pengadaan Kamera DSLR</t>
-  </si>
-  <si>
     <t xml:space="preserve">   054</t>
   </si>
   <si>
@@ -1479,6 +1473,12 @@
   </si>
   <si>
     <t xml:space="preserve">    - Pengadaan Mouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Pengadaan Profesional Kamera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Pengadaan Kartu Pengenal</t>
   </si>
 </sst>
 </file>
@@ -1740,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1917,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C7" s="1">
         <v>13</v>
@@ -1943,7 +1943,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C8" s="1">
         <v>13</v>
@@ -2047,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>482</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -2073,7 +2073,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>481</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -2122,10 +2122,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -2151,13 +2151,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1">
         <v>198000000</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -2200,10 +2200,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -2226,10 +2226,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -2255,13 +2255,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
         <v>200</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1">
         <v>69000</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -2307,13 +2307,13 @@
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1">
         <v>300000</v>
@@ -2333,13 +2333,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1">
         <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1">
         <v>150000</v>
@@ -2359,13 +2359,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1">
         <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1">
         <v>500000</v>
@@ -2385,13 +2385,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1">
         <v>1000000</v>
@@ -2411,13 +2411,13 @@
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1">
         <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26" s="1">
         <v>300000</v>
@@ -2434,10 +2434,10 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -2463,13 +2463,13 @@
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1">
         <v>1000000</v>
@@ -2489,13 +2489,13 @@
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1">
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29" s="1">
         <v>3000000</v>
@@ -2515,13 +2515,13 @@
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1">
         <v>4000000</v>
@@ -2541,13 +2541,13 @@
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E31" s="1">
         <v>100000000</v>
@@ -2567,13 +2567,13 @@
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E32" s="1">
         <v>17600000</v>
@@ -2590,10 +2590,10 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -2619,13 +2619,13 @@
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E34" s="1">
         <v>10050000</v>
@@ -2645,13 +2645,13 @@
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E35" s="1">
         <v>8475000</v>
@@ -2668,10 +2668,10 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -2697,13 +2697,13 @@
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1">
         <v>34</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E37" s="1">
         <v>1000000</v>
@@ -2723,13 +2723,13 @@
         <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E38" s="1">
         <v>4000000</v>
@@ -2746,10 +2746,10 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E40" s="1">
         <v>5000000</v>
@@ -2801,7 +2801,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -2853,13 +2853,13 @@
         <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C43" s="1">
         <v>100</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E43" s="1">
         <v>69000</v>
@@ -2879,13 +2879,13 @@
         <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="1">
         <v>100</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E44" s="1">
         <v>30000</v>
@@ -2902,10 +2902,10 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -2931,13 +2931,13 @@
         <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C46" s="1">
         <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E46" s="1">
         <v>800000</v>
@@ -2954,10 +2954,10 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -2983,13 +2983,13 @@
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48" s="1">
         <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E48" s="1">
         <v>900000</v>
@@ -3009,13 +3009,13 @@
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C49" s="1">
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E49" s="1">
         <v>700000</v>
@@ -3032,10 +3032,10 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -3061,13 +3061,13 @@
         <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C51" s="1">
         <v>40</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E51" s="1">
         <v>900000</v>
@@ -3087,13 +3087,13 @@
         <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" s="1">
         <v>17</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E52" s="1">
         <v>700000</v>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -3139,13 +3139,13 @@
         <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C54" s="1">
         <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E54" s="1">
         <v>150000</v>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -3188,10 +3188,10 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -3217,13 +3217,13 @@
         <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C57" s="1">
         <v>30</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E57" s="1">
         <v>50000</v>
@@ -3243,13 +3243,13 @@
         <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>38</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E58" s="1">
         <v>30000</v>
@@ -3266,10 +3266,10 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -3295,13 +3295,13 @@
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E60" s="1">
         <v>500000</v>
@@ -3321,13 +3321,13 @@
         <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C61" s="1">
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E61" s="1">
         <v>400000</v>
@@ -3347,13 +3347,13 @@
         <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C62" s="1">
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E62" s="1">
         <v>150000</v>
@@ -3373,13 +3373,13 @@
         <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C63" s="1">
         <v>100</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E63" s="1">
         <v>200000</v>
@@ -3399,13 +3399,13 @@
         <v>10</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C64" s="1">
         <v>123</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E64" s="1">
         <v>300000</v>
@@ -3425,13 +3425,13 @@
         <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C65" s="1">
         <v>4</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E65" s="1">
         <v>180000</v>
@@ -3451,13 +3451,13 @@
         <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C66" s="1">
         <v>191</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E66" s="1">
         <v>150000</v>
@@ -3474,10 +3474,10 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
@@ -3503,13 +3503,13 @@
         <v>10</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E68" s="1">
         <v>10800000</v>
@@ -3526,10 +3526,10 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -3555,13 +3555,13 @@
         <v>10</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C70" s="1">
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E70" s="1">
         <v>1400000</v>
@@ -3581,13 +3581,13 @@
         <v>10</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E71" s="1">
         <v>700000</v>
@@ -3607,13 +3607,13 @@
         <v>10</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C72" s="1">
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E72" s="1">
         <v>1000000</v>
@@ -3630,10 +3630,10 @@
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -3659,13 +3659,13 @@
         <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C74" s="1">
         <v>31</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E74" s="1">
         <v>1000000</v>
@@ -3685,13 +3685,13 @@
         <v>10</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E75" s="1">
         <v>700000</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -3734,10 +3734,10 @@
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -3760,10 +3760,10 @@
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -3786,10 +3786,10 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
@@ -3815,13 +3815,13 @@
         <v>10</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C80" s="1">
         <v>4</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E80" s="1">
         <v>200000</v>
@@ -3838,10 +3838,10 @@
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E82" s="1">
         <v>20300000</v>
@@ -3893,13 +3893,13 @@
         <v>10</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E83" s="1">
         <v>14997000</v>
@@ -3916,10 +3916,10 @@
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>10</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C85" s="1">
         <v>30</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E85" s="1">
         <v>150000</v>
@@ -3968,10 +3968,10 @@
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -3994,10 +3994,10 @@
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>10</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
@@ -4049,13 +4049,13 @@
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C89" s="1">
         <v>144</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E89" s="1">
         <v>69000</v>
@@ -4075,13 +4075,13 @@
         <v>10</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C90" s="1">
         <v>4</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E90" s="1">
         <v>200000</v>
@@ -4101,13 +4101,13 @@
         <v>10</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C91" s="1">
         <v>1500</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E91" s="1">
         <v>250</v>
@@ -4124,10 +4124,10 @@
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
@@ -4153,13 +4153,13 @@
         <v>10</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E93" s="1">
         <v>22149000</v>
@@ -4176,10 +4176,10 @@
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -4205,13 +4205,13 @@
         <v>10</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E95" s="1">
         <v>700000</v>
@@ -4231,13 +4231,13 @@
         <v>10</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C96" s="1">
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E96" s="1">
         <v>1400000</v>
@@ -4257,13 +4257,13 @@
         <v>10</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C97" s="1">
         <v>2</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E97" s="1">
         <v>1000000</v>
@@ -4283,13 +4283,13 @@
         <v>10</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E98" s="1">
         <v>900000</v>
@@ -4306,10 +4306,10 @@
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C99" s="1">
         <v>0</v>
@@ -4335,13 +4335,13 @@
         <v>10</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C100" s="1">
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E100" s="1">
         <v>1000000</v>
@@ -4358,10 +4358,10 @@
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
@@ -4387,13 +4387,13 @@
         <v>10</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C102" s="1">
         <v>18</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E102" s="1">
         <v>2962500</v>
@@ -4413,13 +4413,13 @@
         <v>10</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C103" s="1">
         <v>450</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E103" s="1">
         <v>240000</v>
@@ -4436,10 +4436,10 @@
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
@@ -4465,13 +4465,13 @@
         <v>10</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C105" s="1">
         <v>20</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E105" s="1">
         <v>150000</v>
@@ -4488,10 +4488,10 @@
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C106" s="1">
         <v>0</v>
@@ -4514,10 +4514,10 @@
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>10</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4543,13 +4543,13 @@
         <v>10</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E108" s="1">
         <v>144280000</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
@@ -4587,7 +4587,7 @@
         <v>10</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4595,7 +4595,7 @@
         <v>10</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C110" s="1">
         <v>0</v>
@@ -4621,13 +4621,13 @@
         <v>10</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C111" s="1">
         <v>112</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E111" s="1">
         <v>250000</v>
@@ -4647,13 +4647,13 @@
         <v>10</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C112" s="1">
         <v>25</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E112" s="1">
         <v>1000000</v>
@@ -4673,13 +4673,13 @@
         <v>10</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C113" s="1">
         <v>2500</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E113" s="1">
         <v>69000</v>
@@ -4699,13 +4699,13 @@
         <v>10</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C114" s="1">
         <v>100</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E114" s="1">
         <v>69000</v>
@@ -4725,13 +4725,13 @@
         <v>10</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C115" s="1">
         <v>1800</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E115" s="1">
         <v>69000</v>
@@ -4751,13 +4751,13 @@
         <v>10</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C116" s="1">
         <v>250</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E116" s="1">
         <v>69000</v>
@@ -4774,10 +4774,10 @@
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C117" s="1">
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>10</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4803,7 +4803,7 @@
         <v>10</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C118" s="1">
         <v>0</v>
@@ -4829,13 +4829,13 @@
         <v>10</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C119" s="1">
         <v>1075</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E119" s="1">
         <v>290000</v>
@@ -4855,13 +4855,13 @@
         <v>10</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C120" s="1">
         <v>2130</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E120" s="1">
         <v>3000</v>
@@ -4881,13 +4881,13 @@
         <v>10</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C121" s="1">
         <v>300</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E121" s="1">
         <v>290000</v>
@@ -4907,13 +4907,13 @@
         <v>10</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C122" s="1">
         <v>200</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E122" s="1">
         <v>100000</v>
@@ -4933,13 +4933,13 @@
         <v>10</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C123" s="1">
         <v>100</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E123" s="1">
         <v>290000</v>
@@ -4959,13 +4959,13 @@
         <v>10</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C124" s="1">
         <v>620</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E124" s="1">
         <v>5000</v>
@@ -4985,13 +4985,13 @@
         <v>10</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C125" s="1">
         <v>613</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E125" s="1">
         <v>100000</v>
@@ -5011,13 +5011,13 @@
         <v>10</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C126" s="1">
         <v>620</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E126" s="1">
         <v>10000</v>
@@ -5037,13 +5037,13 @@
         <v>10</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C127" s="1">
         <v>90</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E127" s="1">
         <v>150000</v>
@@ -5063,13 +5063,13 @@
         <v>10</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C128" s="1">
         <v>369</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E128" s="1">
         <v>500000</v>
@@ -5089,13 +5089,13 @@
         <v>10</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C129" s="1">
         <v>567</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E129" s="1">
         <v>500000</v>
@@ -5115,13 +5115,13 @@
         <v>10</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C130" s="1">
         <v>24</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E130" s="1">
         <v>800000</v>
@@ -5141,13 +5141,13 @@
         <v>10</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C131" s="1">
         <v>40</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E131" s="1">
         <v>300000</v>
@@ -5167,13 +5167,13 @@
         <v>10</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C132" s="1">
         <v>420</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E132" s="1">
         <v>600000</v>
@@ -5190,10 +5190,10 @@
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C133" s="1">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>10</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5219,13 +5219,13 @@
         <v>10</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C134" s="1">
         <v>26822</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E134" s="1">
         <v>50000</v>
@@ -5245,13 +5245,13 @@
         <v>10</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C135" s="1">
         <v>358</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E135" s="1">
         <v>75000</v>
@@ -5268,10 +5268,10 @@
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C136" s="1">
         <v>0</v>
@@ -5289,7 +5289,7 @@
         <v>10</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5297,13 +5297,13 @@
         <v>10</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C137" s="1">
         <v>2</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E137" s="1">
         <v>15000000</v>
@@ -5323,13 +5323,13 @@
         <v>10</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C138" s="1">
         <v>2</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E138" s="1">
         <v>20000000</v>
@@ -5349,13 +5349,13 @@
         <v>10</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C139" s="1">
         <v>800</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E139" s="1">
         <v>150000</v>
@@ -5375,13 +5375,13 @@
         <v>10</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C140" s="1">
         <v>3400</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E140" s="1">
         <v>15000</v>
@@ -5401,13 +5401,13 @@
         <v>10</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C141" s="1">
         <v>2</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E141" s="1">
         <v>800000</v>
@@ -5427,13 +5427,13 @@
         <v>10</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C142" s="1">
         <v>816</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E142" s="1">
         <v>25000</v>
@@ -5450,10 +5450,10 @@
     </row>
     <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C143" s="1">
         <v>0</v>
@@ -5471,7 +5471,7 @@
         <v>10</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5479,13 +5479,13 @@
         <v>10</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C144" s="1">
         <v>25</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E144" s="1">
         <v>1000000</v>
@@ -5502,10 +5502,10 @@
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C145" s="1">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>10</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5531,13 +5531,13 @@
         <v>10</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C146" s="1">
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E146" s="1">
         <v>12000000</v>
@@ -5557,13 +5557,13 @@
         <v>10</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C147" s="1">
         <v>15</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E147" s="1">
         <v>1000000</v>
@@ -5583,13 +5583,13 @@
         <v>10</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C148" s="1">
         <v>100</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E148" s="1">
         <v>150000</v>
@@ -5606,10 +5606,10 @@
     </row>
     <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C149" s="1">
         <v>0</v>
@@ -5627,7 +5627,7 @@
         <v>10</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5635,7 +5635,7 @@
         <v>10</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C150" s="1">
         <v>0</v>
@@ -5661,13 +5661,13 @@
         <v>10</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C151" s="1">
         <v>10</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E151" s="1">
         <v>6000000</v>
@@ -5684,10 +5684,10 @@
     </row>
     <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C152" s="1">
         <v>0</v>
@@ -5705,7 +5705,7 @@
         <v>10</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5713,13 +5713,13 @@
         <v>10</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C153" s="1">
         <v>50</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E153" s="1">
         <v>150000</v>
@@ -5739,13 +5739,13 @@
         <v>10</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C154" s="1">
         <v>135</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E154" s="1">
         <v>150000</v>
@@ -5783,7 +5783,7 @@
         <v>10</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5791,13 +5791,13 @@
         <v>10</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C156" s="1">
         <v>25</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E156" s="1">
         <v>24080000</v>
@@ -5817,13 +5817,13 @@
         <v>10</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C157" s="1">
         <v>100</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E157" s="1">
         <v>16560000</v>
@@ -5843,13 +5843,13 @@
         <v>10</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C158" s="1">
         <v>1</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E158" s="1">
         <v>6000000</v>
@@ -5869,13 +5869,13 @@
         <v>10</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C159" s="1">
         <v>1</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E159" s="1">
         <v>150000000</v>
@@ -5895,13 +5895,13 @@
         <v>10</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C160" s="1">
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E160" s="1">
         <v>332000000</v>
@@ -5921,13 +5921,13 @@
         <v>10</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C161" s="1">
         <v>2</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E161" s="1">
         <v>3500000</v>
@@ -5947,13 +5947,13 @@
         <v>10</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C162" s="1">
         <v>1196</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E162" s="1">
         <v>500000</v>
@@ -5970,10 +5970,10 @@
     </row>
     <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C163" s="1">
         <v>0</v>
@@ -5991,7 +5991,7 @@
         <v>10</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5999,13 +5999,13 @@
         <v>10</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C164" s="1">
         <v>5</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E164" s="1">
         <v>2000000</v>
@@ -6025,7 +6025,7 @@
         <v>10</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C165" s="1">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>16</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C166" s="1">
         <v>0</v>
@@ -6074,10 +6074,10 @@
     </row>
     <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C167" s="1">
         <v>0</v>
@@ -6100,10 +6100,10 @@
     </row>
     <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C168" s="1">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>10</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C169" s="1">
         <v>0</v>
@@ -6155,13 +6155,13 @@
         <v>10</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C170" s="1">
         <v>229</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E170" s="1">
         <v>125000</v>
@@ -6181,7 +6181,7 @@
         <v>10</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C171" s="1">
         <v>0</v>
@@ -6207,13 +6207,13 @@
         <v>10</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C172" s="1">
         <v>40</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E172" s="1">
         <v>69000</v>
@@ -6233,13 +6233,13 @@
         <v>10</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C173" s="1">
         <v>100</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E173" s="1">
         <v>69000</v>
@@ -6259,13 +6259,13 @@
         <v>10</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C174" s="1">
         <v>100</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E174" s="1">
         <v>69000</v>
@@ -6285,13 +6285,13 @@
         <v>10</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C175" s="1">
         <v>95</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E175" s="1">
         <v>69000</v>
@@ -6311,13 +6311,13 @@
         <v>10</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C176" s="1">
         <v>21600</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E176" s="1">
         <v>900</v>
@@ -6337,13 +6337,13 @@
         <v>10</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C177" s="1">
         <v>75</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E177" s="1">
         <v>60000</v>
@@ -6363,13 +6363,13 @@
         <v>10</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C178" s="1">
         <v>75</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E178" s="1">
         <v>165000</v>
@@ -6389,13 +6389,13 @@
         <v>10</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C179" s="1">
         <v>1500</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E179" s="1">
         <v>9200</v>
@@ -6415,13 +6415,13 @@
         <v>10</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C180" s="1">
         <v>400</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E180" s="1">
         <v>69000</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C181" s="1">
         <v>0</v>
@@ -6467,7 +6467,7 @@
         <v>10</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C182" s="1">
         <v>0</v>
@@ -6493,13 +6493,13 @@
         <v>10</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C183" s="1">
         <v>1250</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E183" s="1">
         <v>250000</v>
@@ -6519,13 +6519,13 @@
         <v>10</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C184" s="1">
         <v>100</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E184" s="1">
         <v>75000</v>
@@ -6545,13 +6545,13 @@
         <v>10</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C185" s="1">
         <v>5</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E185" s="1">
         <v>5000000</v>
@@ -6571,7 +6571,7 @@
         <v>10</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C186" s="1">
         <v>0</v>
@@ -6597,13 +6597,13 @@
         <v>10</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C187" s="1">
         <v>6</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E187" s="1">
         <v>450000</v>
@@ -6623,13 +6623,13 @@
         <v>10</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C188" s="1">
         <v>2</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E188" s="1">
         <v>400000</v>
@@ -6649,13 +6649,13 @@
         <v>10</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C189" s="1">
         <v>2</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E189" s="1">
         <v>350000</v>
@@ -6675,13 +6675,13 @@
         <v>10</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C190" s="1">
         <v>100</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E190" s="1">
         <v>300000</v>
@@ -6698,10 +6698,10 @@
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C191" s="1">
         <v>0</v>
@@ -6727,7 +6727,7 @@
         <v>10</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C192" s="1">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>10</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C193" s="1">
         <v>0</v>
@@ -6779,13 +6779,13 @@
         <v>10</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C194" s="1">
         <v>80</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E194" s="1">
         <v>4200000</v>
@@ -6805,13 +6805,13 @@
         <v>10</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C195" s="1">
         <v>17</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E195" s="1">
         <v>5965000</v>
@@ -6831,13 +6831,13 @@
         <v>10</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C196" s="1">
         <v>10</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E196" s="1">
         <v>2500000</v>
@@ -6857,13 +6857,13 @@
         <v>10</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C197" s="1">
         <v>6</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E197" s="1">
         <v>5500000</v>
@@ -6880,10 +6880,10 @@
     </row>
     <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C198" s="1">
         <v>0</v>
@@ -6906,10 +6906,10 @@
     </row>
     <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C199" s="1">
         <v>0</v>
@@ -6935,13 +6935,13 @@
         <v>10</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C200" s="1">
         <v>4</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E200" s="1">
         <v>26877500</v>
@@ -6958,10 +6958,10 @@
     </row>
     <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C201" s="1">
         <v>0</v>
@@ -6987,7 +6987,7 @@
         <v>10</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C202" s="1">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>10</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C203" s="1">
         <v>0</v>
@@ -7039,7 +7039,7 @@
         <v>10</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C204" s="1">
         <v>0</v>
@@ -7065,13 +7065,13 @@
         <v>10</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C205" s="1">
         <v>2000</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E205" s="1">
         <v>100000</v>
@@ -7091,13 +7091,13 @@
         <v>10</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C206" s="1">
         <v>670</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E206" s="1">
         <v>69000</v>
@@ -7117,13 +7117,13 @@
         <v>10</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C207" s="1">
         <v>114</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E207" s="1">
         <v>69000</v>
@@ -7143,13 +7143,13 @@
         <v>10</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C208" s="1">
         <v>55556</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E208" s="1">
         <v>900</v>
@@ -7169,13 +7169,13 @@
         <v>10</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C209" s="1">
         <v>10</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E209" s="1">
         <v>3750000</v>
@@ -7195,13 +7195,13 @@
         <v>10</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C210" s="1">
         <v>525</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E210" s="1">
         <v>60000</v>
@@ -7221,13 +7221,13 @@
         <v>10</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C211" s="1">
         <v>705</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E211" s="1">
         <v>165000</v>
@@ -7247,13 +7247,13 @@
         <v>10</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C212" s="1">
         <v>10500</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E212" s="1">
         <v>9200</v>
@@ -7273,13 +7273,13 @@
         <v>10</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C213" s="1">
         <v>600</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E213" s="1">
         <v>10000</v>
@@ -7296,10 +7296,10 @@
     </row>
     <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C214" s="1">
         <v>0</v>
@@ -7325,13 +7325,13 @@
         <v>10</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C215" s="1">
         <v>13750</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E215" s="1">
         <v>200000</v>
@@ -7351,13 +7351,13 @@
         <v>10</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C216" s="1">
         <v>12</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E216" s="1">
         <v>450000</v>
@@ -7377,13 +7377,13 @@
         <v>10</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C217" s="1">
         <v>10</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E217" s="1">
         <v>400000</v>
@@ -7403,13 +7403,13 @@
         <v>10</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C218" s="1">
         <v>10</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E218" s="1">
         <v>350000</v>
@@ -7429,13 +7429,13 @@
         <v>10</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C219" s="1">
         <v>300</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E219" s="1">
         <v>300000</v>
@@ -7455,13 +7455,13 @@
         <v>10</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C220" s="1">
         <v>120</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E220" s="1">
         <v>200000</v>
@@ -7481,13 +7481,13 @@
         <v>10</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C221" s="1">
         <v>397</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E221" s="1">
         <v>75000</v>
@@ -7504,10 +7504,10 @@
     </row>
     <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C222" s="1">
         <v>0</v>
@@ -7533,13 +7533,13 @@
         <v>10</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C223" s="1">
         <v>470</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E223" s="1">
         <v>1300000</v>
@@ -7559,13 +7559,13 @@
         <v>10</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C224" s="1">
         <v>36</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E224" s="1">
         <v>1800000</v>
@@ -7585,13 +7585,13 @@
         <v>10</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C225" s="1">
         <v>1</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E225" s="1">
         <v>2000000</v>
@@ -7611,13 +7611,13 @@
         <v>10</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C226" s="1">
         <v>3</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E226" s="1">
         <v>15603000</v>
@@ -7637,13 +7637,13 @@
         <v>10</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C227" s="1">
         <v>1365</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E227" s="1">
         <v>100000</v>
@@ -7660,10 +7660,10 @@
     </row>
     <row r="228" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C228" s="1">
         <v>0</v>
@@ -7689,13 +7689,13 @@
         <v>10</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C229" s="1">
         <v>330</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E229" s="1">
         <v>200000</v>
@@ -7715,13 +7715,13 @@
         <v>10</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C230" s="1">
         <v>8908</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E230" s="1">
         <v>100000</v>
@@ -7738,10 +7738,10 @@
     </row>
     <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C231" s="1">
         <v>0</v>
@@ -7767,7 +7767,7 @@
         <v>10</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C232" s="1">
         <v>0</v>
@@ -7793,7 +7793,7 @@
         <v>10</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C233" s="1">
         <v>0</v>
@@ -7819,13 +7819,13 @@
         <v>10</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C234" s="1">
         <v>1</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E234" s="1">
         <v>5120000</v>
@@ -7842,10 +7842,10 @@
     </row>
     <row r="235" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C235" s="1">
         <v>0</v>
@@ -7871,13 +7871,13 @@
         <v>10</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C236" s="1">
         <v>3</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E236" s="1">
         <v>900000</v>
@@ -7894,10 +7894,10 @@
     </row>
     <row r="237" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C237" s="1">
         <v>0</v>
@@ -7923,7 +7923,7 @@
         <v>10</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C238" s="1">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>10</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C239" s="1">
         <v>0</v>
@@ -7975,13 +7975,13 @@
         <v>10</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C240" s="1">
         <v>500</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E240" s="1">
         <v>4766000</v>
@@ -8001,13 +8001,13 @@
         <v>10</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C241" s="1">
         <v>60</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E241" s="1">
         <v>5511250</v>
@@ -8027,13 +8027,13 @@
         <v>10</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C242" s="1">
         <v>20</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E242" s="1">
         <v>4420000</v>
@@ -8053,13 +8053,13 @@
         <v>10</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C243" s="1">
         <v>6</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E243" s="1">
         <v>6470000</v>
@@ -8079,7 +8079,7 @@
         <v>23</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C244" s="1">
         <v>0</v>
@@ -8102,10 +8102,10 @@
     </row>
     <row r="245" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C245" s="1">
         <v>0</v>
@@ -8128,10 +8128,10 @@
     </row>
     <row r="246" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C246" s="1">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>10</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C247" s="1">
         <v>0</v>
@@ -8183,13 +8183,13 @@
         <v>10</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C248" s="1">
         <v>460</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E248" s="1">
         <v>900</v>
@@ -8209,7 +8209,7 @@
         <v>10</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C249" s="1">
         <v>0</v>
@@ -8235,13 +8235,13 @@
         <v>10</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C250" s="1">
         <v>75</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E250" s="1">
         <v>175000</v>
@@ -8261,13 +8261,13 @@
         <v>10</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C251" s="1">
         <v>1</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E251" s="1">
         <v>5940000</v>
@@ -8287,7 +8287,7 @@
         <v>10</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C252" s="1">
         <v>0</v>
@@ -8313,13 +8313,13 @@
         <v>10</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C253" s="1">
         <v>5</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E253" s="1">
         <v>221300</v>
@@ -8336,10 +8336,10 @@
     </row>
     <row r="254" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C254" s="1">
         <v>0</v>
@@ -8365,13 +8365,13 @@
         <v>10</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C255" s="1">
         <v>120</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E255" s="1">
         <v>290000</v>
@@ -8391,13 +8391,13 @@
         <v>10</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C256" s="1">
         <v>2925</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E256" s="1">
         <v>10000</v>
@@ -8417,13 +8417,13 @@
         <v>10</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C257" s="1">
         <v>75</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E257" s="1">
         <v>750000</v>
@@ -8443,13 +8443,13 @@
         <v>10</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C258" s="1">
         <v>75</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E258" s="1">
         <v>100000</v>
@@ -8469,13 +8469,13 @@
         <v>10</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C259" s="1">
         <v>75</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E259" s="1">
         <v>100000</v>
@@ -8495,13 +8495,13 @@
         <v>10</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C260" s="1">
         <v>225</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E260" s="1">
         <v>100000</v>
@@ -8518,10 +8518,10 @@
     </row>
     <row r="261" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C261" s="1">
         <v>0</v>
@@ -8544,10 +8544,10 @@
     </row>
     <row r="262" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C262" s="1">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>10</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C263" s="1">
         <v>0</v>
@@ -8599,13 +8599,13 @@
         <v>10</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C264" s="1">
         <v>1824</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E264" s="1">
         <v>900</v>
@@ -8625,7 +8625,7 @@
         <v>10</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C265" s="1">
         <v>0</v>
@@ -8651,13 +8651,13 @@
         <v>10</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C266" s="1">
         <v>500</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E266" s="1">
         <v>222000</v>
@@ -8677,13 +8677,13 @@
         <v>10</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C267" s="1">
         <v>165</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E267" s="1">
         <v>69000</v>
@@ -8703,13 +8703,13 @@
         <v>10</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C268" s="1">
         <v>525</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E268" s="1">
         <v>100000</v>
@@ -8729,13 +8729,13 @@
         <v>10</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C269" s="1">
         <v>3000</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E269" s="1">
         <v>2000</v>
@@ -8755,13 +8755,13 @@
         <v>10</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C270" s="1">
         <v>502</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E270" s="1">
         <v>100000</v>
@@ -8781,13 +8781,13 @@
         <v>10</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C271" s="1">
         <v>2969</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E271" s="1">
         <v>2000</v>
@@ -8804,10 +8804,10 @@
     </row>
     <row r="272" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C272" s="1">
         <v>0</v>
@@ -8833,13 +8833,13 @@
         <v>10</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C273" s="1">
         <v>7908</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E273" s="1">
         <v>10000</v>
@@ -8859,13 +8859,13 @@
         <v>10</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C274" s="1">
         <v>342</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E274" s="1">
         <v>290000</v>
@@ -8885,13 +8885,13 @@
         <v>10</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C275" s="1">
         <v>868</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E275" s="1">
         <v>50000</v>
@@ -8911,13 +8911,13 @@
         <v>10</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C276" s="1">
         <v>434</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E276" s="1">
         <v>100000</v>
@@ -8937,13 +8937,13 @@
         <v>10</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C277" s="1">
         <v>434</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E277" s="1">
         <v>100000</v>
@@ -8963,13 +8963,13 @@
         <v>10</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C278" s="1">
         <v>1202</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E278" s="1">
         <v>95000</v>
@@ -8989,13 +8989,13 @@
         <v>10</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C279" s="1">
         <v>434</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E279" s="1">
         <v>750000</v>
@@ -9015,13 +9015,13 @@
         <v>10</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C280" s="1">
         <v>50</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E280" s="1">
         <v>250000</v>
@@ -9041,13 +9041,13 @@
         <v>10</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C281" s="1">
         <v>1392</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E281" s="1">
         <v>250000</v>
@@ -9064,10 +9064,10 @@
     </row>
     <row r="282" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C282" s="1">
         <v>0</v>
@@ -9093,13 +9093,13 @@
         <v>10</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C283" s="1">
         <v>1</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E283" s="1">
         <v>65000000</v>
@@ -9116,10 +9116,10 @@
     </row>
     <row r="284" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C284" s="1">
         <v>0</v>
@@ -9145,13 +9145,13 @@
         <v>10</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C285" s="1">
         <v>92028</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E285" s="1">
         <v>330</v>
@@ -9171,13 +9171,13 @@
         <v>10</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C286" s="1">
         <v>1</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E286" s="1">
         <v>8208000</v>
@@ -9194,10 +9194,10 @@
     </row>
     <row r="287" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C287" s="1">
         <v>0</v>
@@ -9223,13 +9223,13 @@
         <v>10</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C288" s="1">
         <v>60</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E288" s="1">
         <v>200000</v>
@@ -9246,10 +9246,10 @@
     </row>
     <row r="289" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C289" s="1">
         <v>1</v>
@@ -9272,10 +9272,10 @@
     </row>
     <row r="290" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C290" s="1">
         <v>0</v>
@@ -9298,10 +9298,10 @@
     </row>
     <row r="291" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C291" s="1">
         <v>0</v>
@@ -9327,13 +9327,13 @@
         <v>10</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C292" s="1">
         <v>80</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E292" s="1">
         <v>69000</v>
@@ -9350,10 +9350,10 @@
     </row>
     <row r="293" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C293" s="1">
         <v>0</v>
@@ -9379,13 +9379,13 @@
         <v>10</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C294" s="1">
         <v>3</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E294" s="1">
         <v>1000000</v>
@@ -9402,10 +9402,10 @@
     </row>
     <row r="295" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C295" s="1">
         <v>0</v>
@@ -9431,13 +9431,13 @@
         <v>10</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C296" s="1">
         <v>30</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E296" s="1">
         <v>150000</v>
@@ -9457,7 +9457,7 @@
         <v>16</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C297" s="1">
         <v>0</v>
@@ -9480,10 +9480,10 @@
     </row>
     <row r="298" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C298" s="1">
         <v>0</v>
@@ -9509,13 +9509,13 @@
         <v>10</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C299" s="1">
         <v>20</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E299" s="1">
         <v>200000</v>
@@ -9535,7 +9535,7 @@
         <v>23</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C300" s="1">
         <v>0</v>
@@ -9558,10 +9558,10 @@
     </row>
     <row r="301" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C301" s="1">
         <v>0</v>
@@ -9587,13 +9587,13 @@
         <v>10</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C302" s="1">
         <v>15</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E302" s="1">
         <v>300000</v>
@@ -9610,10 +9610,10 @@
     </row>
     <row r="303" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C303" s="1">
         <v>0</v>
@@ -9639,13 +9639,13 @@
         <v>10</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C304" s="1">
         <v>200</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E304" s="1">
         <v>150000</v>
@@ -9662,10 +9662,10 @@
     </row>
     <row r="305" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C305" s="1">
         <v>0</v>
@@ -9688,10 +9688,10 @@
     </row>
     <row r="306" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C306" s="1">
         <v>0</v>
@@ -9717,13 +9717,13 @@
         <v>10</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C307" s="1">
         <v>80</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E307" s="1">
         <v>69000</v>
@@ -9740,10 +9740,10 @@
     </row>
     <row r="308" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C308" s="1">
         <v>0</v>
@@ -9769,13 +9769,13 @@
         <v>10</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C309" s="1">
         <v>38</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E309" s="1">
         <v>500000</v>
@@ -9795,13 +9795,13 @@
         <v>10</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C310" s="1">
         <v>35</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E310" s="1">
         <v>300000</v>
@@ -9821,13 +9821,13 @@
         <v>10</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C311" s="1">
         <v>45</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E311" s="1">
         <v>300000</v>
@@ -9844,10 +9844,10 @@
     </row>
     <row r="312" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C312" s="1">
         <v>0</v>
@@ -9873,13 +9873,13 @@
         <v>10</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C313" s="1">
         <v>20</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E313" s="1">
         <v>1000000</v>
@@ -9896,10 +9896,10 @@
     </row>
     <row r="314" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C314" s="1">
         <v>0</v>
@@ -9925,13 +9925,13 @@
         <v>10</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C315" s="1">
         <v>3</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E315" s="1">
         <v>1000000</v>
@@ -9948,10 +9948,10 @@
     </row>
     <row r="316" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C316" s="1">
         <v>0</v>
@@ -9977,13 +9977,13 @@
         <v>10</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C317" s="1">
         <v>60</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E317" s="1">
         <v>150000</v>
@@ -10000,10 +10000,10 @@
     </row>
     <row r="318" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C318" s="1">
         <v>0</v>
@@ -10026,10 +10026,10 @@
     </row>
     <row r="319" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C319" s="1">
         <v>0</v>
@@ -10055,13 +10055,13 @@
         <v>10</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C320" s="1">
         <v>100</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E320" s="1">
         <v>69000</v>
@@ -10081,13 +10081,13 @@
         <v>10</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C321" s="1">
         <v>100</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E321" s="1">
         <v>69000</v>
@@ -10104,10 +10104,10 @@
     </row>
     <row r="322" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C322" s="1">
         <v>0</v>
@@ -10133,13 +10133,13 @@
         <v>10</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C323" s="1">
         <v>200</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E323" s="1">
         <v>150000</v>
@@ -10156,10 +10156,10 @@
     </row>
     <row r="324" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C324" s="1">
         <v>1</v>
@@ -10182,10 +10182,10 @@
     </row>
     <row r="325" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C325" s="1">
         <v>0</v>
@@ -10208,10 +10208,10 @@
     </row>
     <row r="326" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C326" s="1">
         <v>0</v>
@@ -10234,10 +10234,10 @@
     </row>
     <row r="327" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C327" s="1">
         <v>0</v>
@@ -10263,13 +10263,13 @@
         <v>10</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C328" s="1">
         <v>1</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E328" s="1">
         <v>4916230000</v>
@@ -10289,13 +10289,13 @@
         <v>10</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C329" s="1">
         <v>1</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E329" s="1">
         <v>407352000</v>
@@ -10315,13 +10315,13 @@
         <v>10</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C330" s="1">
         <v>1</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E330" s="1">
         <v>407352000</v>
@@ -10338,10 +10338,10 @@
     </row>
     <row r="331" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C331" s="1">
         <v>0</v>
@@ -10367,13 +10367,13 @@
         <v>10</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C332" s="1">
         <v>1</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E332" s="1">
         <v>59000</v>
@@ -10393,13 +10393,13 @@
         <v>10</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C333" s="1">
         <v>1</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E333" s="1">
         <v>5000</v>
@@ -10419,13 +10419,13 @@
         <v>10</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C334" s="1">
         <v>1</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E334" s="1">
         <v>5000</v>
@@ -10442,10 +10442,10 @@
     </row>
     <row r="335" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C335" s="1">
         <v>0</v>
@@ -10471,13 +10471,13 @@
         <v>10</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C336" s="1">
         <v>1</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E336" s="1">
         <v>323781000</v>
@@ -10497,13 +10497,13 @@
         <v>10</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C337" s="1">
         <v>1</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E337" s="1">
         <v>27565000</v>
@@ -10523,13 +10523,13 @@
         <v>10</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C338" s="1">
         <v>1</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E338" s="1">
         <v>27565000</v>
@@ -10546,10 +10546,10 @@
     </row>
     <row r="339" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C339" s="1">
         <v>0</v>
@@ -10575,13 +10575,13 @@
         <v>10</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C340" s="1">
         <v>1</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E340" s="1">
         <v>99493000</v>
@@ -10601,13 +10601,13 @@
         <v>10</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C341" s="1">
         <v>1</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E341" s="1">
         <v>8091000</v>
@@ -10627,13 +10627,13 @@
         <v>10</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C342" s="1">
         <v>1</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E342" s="1">
         <v>8091000</v>
@@ -10650,10 +10650,10 @@
     </row>
     <row r="343" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C343" s="1">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>10</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C344" s="1">
         <v>1</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E344" s="1">
         <v>87270000</v>
@@ -10705,13 +10705,13 @@
         <v>10</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C345" s="1">
         <v>1</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E345" s="1">
         <v>7272000</v>
@@ -10731,13 +10731,13 @@
         <v>10</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C346" s="1">
         <v>1</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E346" s="1">
         <v>7272000</v>
@@ -10754,10 +10754,10 @@
     </row>
     <row r="347" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C347" s="1">
         <v>0</v>
@@ -10783,13 +10783,13 @@
         <v>10</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C348" s="1">
         <v>1</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E348" s="1">
         <v>528807000</v>
@@ -10809,13 +10809,13 @@
         <v>10</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C349" s="1">
         <v>1</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E349" s="1">
         <v>45400000</v>
@@ -10835,13 +10835,13 @@
         <v>10</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C350" s="1">
         <v>1</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E350" s="1">
         <v>45400000</v>
@@ -10858,10 +10858,10 @@
     </row>
     <row r="351" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C351" s="1">
         <v>0</v>
@@ -10887,13 +10887,13 @@
         <v>10</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C352" s="1">
         <v>1</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E352" s="1">
         <v>54159000</v>
@@ -10913,13 +10913,13 @@
         <v>10</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C353" s="1">
         <v>1</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E353" s="1">
         <v>6513000</v>
@@ -10939,13 +10939,13 @@
         <v>10</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C354" s="1">
         <v>1</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E354" s="1">
         <v>6513000</v>
@@ -10962,10 +10962,10 @@
     </row>
     <row r="355" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C355" s="1">
         <v>0</v>
@@ -10991,13 +10991,13 @@
         <v>10</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C356" s="1">
         <v>1</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E356" s="1">
         <v>249201000</v>
@@ -11014,10 +11014,10 @@
     </row>
     <row r="357" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C357" s="1">
         <v>0</v>
@@ -11043,13 +11043,13 @@
         <v>10</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C358" s="1">
         <v>1</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E358" s="1">
         <v>768431000</v>
@@ -11066,10 +11066,10 @@
     </row>
     <row r="359" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C359" s="1">
         <v>0</v>
@@ -11095,13 +11095,13 @@
         <v>10</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C360" s="1">
         <v>1</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E360" s="1">
         <v>85879000</v>
@@ -11121,13 +11121,13 @@
         <v>10</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C361" s="1">
         <v>1</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E361" s="1">
         <v>7156000</v>
@@ -11147,13 +11147,13 @@
         <v>10</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C362" s="1">
         <v>1</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E362" s="1">
         <v>7156000</v>
@@ -11170,10 +11170,10 @@
     </row>
     <row r="363" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C363" s="1">
         <v>0</v>
@@ -11199,13 +11199,13 @@
         <v>10</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C364" s="1">
         <v>1</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E364" s="1">
         <v>1867582000</v>
@@ -11222,10 +11222,10 @@
     </row>
     <row r="365" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C365" s="1">
         <v>0</v>
@@ -11251,13 +11251,13 @@
         <v>10</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C366" s="1">
         <v>1</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E366" s="1">
         <v>100000000</v>
@@ -11274,10 +11274,10 @@
     </row>
     <row r="367" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C367" s="1">
         <v>0</v>
@@ -11303,13 +11303,13 @@
         <v>10</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C368" s="1">
         <v>1</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E368" s="1">
         <v>9840486000</v>
@@ -11326,10 +11326,10 @@
     </row>
     <row r="369" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C369" s="1">
         <v>0</v>
@@ -11352,10 +11352,10 @@
     </row>
     <row r="370" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C370" s="1">
         <v>0</v>
@@ -11378,10 +11378,10 @@
     </row>
     <row r="371" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C371" s="1">
         <v>0</v>
@@ -11407,13 +11407,13 @@
         <v>10</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C372" s="1">
         <v>1950</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E372" s="1">
         <v>36000</v>
@@ -11430,10 +11430,10 @@
     </row>
     <row r="373" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C373" s="1">
         <v>0</v>
@@ -11456,10 +11456,10 @@
     </row>
     <row r="374" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C374" s="1">
         <v>0</v>
@@ -11485,13 +11485,13 @@
         <v>10</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C375" s="1">
         <v>5</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E375" s="1">
         <v>590000</v>
@@ -11511,13 +11511,13 @@
         <v>10</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C376" s="1">
         <v>10</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E376" s="1">
         <v>590000</v>
@@ -11537,13 +11537,13 @@
         <v>10</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C377" s="1">
         <v>1</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E377" s="1">
         <v>667000</v>
@@ -11560,10 +11560,10 @@
     </row>
     <row r="378" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C378" s="1">
         <v>0</v>
@@ -11586,10 +11586,10 @@
     </row>
     <row r="379" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C379" s="1">
         <v>0</v>
@@ -11615,13 +11615,13 @@
         <v>10</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C380" s="1">
         <v>2500</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E380" s="1">
         <v>10000</v>
@@ -11641,13 +11641,13 @@
         <v>10</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C381" s="1">
         <v>5000</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E381" s="1">
         <v>98800</v>
@@ -11667,13 +11667,13 @@
         <v>10</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C382" s="1">
         <v>1500</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E382" s="1">
         <v>100000</v>
@@ -11690,10 +11690,10 @@
     </row>
     <row r="383" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C383" s="1">
         <v>0</v>
@@ -11719,13 +11719,13 @@
         <v>10</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C384" s="1">
         <v>1</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E384" s="1">
         <v>18620000</v>
@@ -11742,10 +11742,10 @@
     </row>
     <row r="385" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C385" s="1">
         <v>0</v>
@@ -11768,10 +11768,10 @@
     </row>
     <row r="386" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C386" s="1">
         <v>0</v>
@@ -11797,13 +11797,13 @@
         <v>10</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C387" s="1">
         <v>13</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E387" s="1">
         <v>1200000</v>
@@ -11820,10 +11820,10 @@
     </row>
     <row r="388" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C388" s="1">
         <v>0</v>
@@ -11849,13 +11849,13 @@
         <v>10</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C389" s="1">
         <v>1</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E389" s="1">
         <v>28000000</v>
@@ -11875,13 +11875,13 @@
         <v>10</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C390" s="1">
         <v>10</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E390" s="1">
         <v>13890000</v>
@@ -11901,13 +11901,13 @@
         <v>10</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C391" s="1">
         <v>1</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E391" s="1">
         <v>15738000</v>
@@ -11927,13 +11927,13 @@
         <v>10</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C392" s="1">
         <v>1</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E392" s="1">
         <v>3640000</v>
@@ -11950,10 +11950,10 @@
     </row>
     <row r="393" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C393" s="1">
         <v>0</v>
@@ -11976,10 +11976,10 @@
     </row>
     <row r="394" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C394" s="1">
         <v>0</v>
@@ -12005,13 +12005,13 @@
         <v>10</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C395" s="1">
         <v>6</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E395" s="1">
         <v>3000000</v>
@@ -12031,13 +12031,13 @@
         <v>10</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C396" s="1">
         <v>6</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E396" s="1">
         <v>3000000</v>
@@ -12054,10 +12054,10 @@
     </row>
     <row r="397" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C397" s="1">
         <v>0</v>
@@ -12083,13 +12083,13 @@
         <v>10</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C398" s="1">
         <v>20</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E398" s="1">
         <v>550000</v>
@@ -12109,13 +12109,13 @@
         <v>10</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C399" s="1">
         <v>5</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E399" s="1">
         <v>3600000</v>
@@ -12135,13 +12135,13 @@
         <v>10</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C400" s="1">
         <v>1</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E400" s="1">
         <v>7875000</v>
@@ -12161,13 +12161,13 @@
         <v>10</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C401" s="1">
         <v>20</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E401" s="1">
         <v>4625000</v>
@@ -12187,13 +12187,13 @@
         <v>10</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C402" s="1">
         <v>12</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E402" s="1">
         <v>5000000</v>
@@ -12213,13 +12213,13 @@
         <v>10</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C403" s="1">
         <v>1</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E403" s="1">
         <v>199000000</v>
@@ -12239,13 +12239,13 @@
         <v>10</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C404" s="1">
         <v>5</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E404" s="1">
         <v>9450000</v>
@@ -12265,13 +12265,13 @@
         <v>10</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C405" s="1">
         <v>50</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E405" s="1">
         <v>554980</v>
@@ -12291,13 +12291,13 @@
         <v>10</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C406" s="1">
         <v>1</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E406" s="1">
         <v>10250000</v>
@@ -12317,13 +12317,13 @@
         <v>10</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C407" s="1">
         <v>1</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E407" s="1">
         <v>20000000</v>
@@ -12343,13 +12343,13 @@
         <v>10</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C408" s="1">
         <v>200</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E408" s="1">
         <v>500000</v>
@@ -12369,13 +12369,13 @@
         <v>10</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C409" s="1">
         <v>30</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E409" s="1">
         <v>4000000</v>
@@ -12395,13 +12395,13 @@
         <v>10</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C410" s="1">
         <v>5</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E410" s="1">
         <v>450000</v>
@@ -12421,13 +12421,13 @@
         <v>10</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C411" s="1">
         <v>20</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E411" s="1">
         <v>547500</v>
@@ -12447,13 +12447,13 @@
         <v>10</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C412" s="1">
         <v>110</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E412" s="1">
         <v>60000</v>
@@ -12473,13 +12473,13 @@
         <v>10</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C413" s="1">
         <v>2000</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E413" s="1">
         <v>12000</v>
@@ -12499,13 +12499,13 @@
         <v>10</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C414" s="1">
         <v>2</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E414" s="1">
         <v>40000000</v>
@@ -12522,10 +12522,10 @@
     </row>
     <row r="415" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C415" s="1">
         <v>0</v>
@@ -12548,10 +12548,10 @@
     </row>
     <row r="416" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C416" s="1">
         <v>0</v>
@@ -12577,13 +12577,13 @@
         <v>10</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C417" s="1">
         <v>65</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E417" s="1">
         <v>4400000</v>
@@ -12603,13 +12603,13 @@
         <v>10</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C418" s="1">
         <v>13</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E418" s="1">
         <v>4400000</v>
@@ -12629,13 +12629,13 @@
         <v>10</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C419" s="1">
         <v>36</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E419" s="1">
         <v>4400000</v>
@@ -12655,13 +12655,13 @@
         <v>10</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C420" s="1">
         <v>65</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E420" s="1">
         <v>4400000</v>
@@ -12681,13 +12681,13 @@
         <v>10</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C421" s="1">
         <v>143</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E421" s="1">
         <v>4400000</v>
@@ -12707,13 +12707,13 @@
         <v>10</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C422" s="1">
         <v>12</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E422" s="1">
         <v>500000</v>
@@ -12733,13 +12733,13 @@
         <v>10</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C423" s="1">
         <v>12</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E423" s="1">
         <v>42350000</v>
@@ -12759,13 +12759,13 @@
         <v>10</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C424" s="1">
         <v>12</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E424" s="1">
         <v>30170000</v>
@@ -12785,13 +12785,13 @@
         <v>10</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C425" s="1">
         <v>1</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E425" s="1">
         <v>199000000</v>
@@ -12811,13 +12811,13 @@
         <v>10</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C426" s="1">
         <v>12</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E426" s="1">
         <v>1500000</v>
@@ -12837,13 +12837,13 @@
         <v>10</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C427" s="1">
         <v>1</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E427" s="1">
         <v>126000000</v>
@@ -12863,13 +12863,13 @@
         <v>10</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C428" s="1">
         <v>105</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E428" s="1">
         <v>700000</v>
@@ -12889,13 +12889,13 @@
         <v>10</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C429" s="1">
         <v>12</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E429" s="1">
         <v>4670000</v>
@@ -12912,10 +12912,10 @@
     </row>
     <row r="430" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C430" s="1">
         <v>0</v>
@@ -12941,13 +12941,13 @@
         <v>10</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C431" s="1">
         <v>1</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E431" s="1">
         <v>25000000</v>
@@ -12967,13 +12967,13 @@
         <v>10</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C432" s="1">
         <v>1</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E432" s="1">
         <v>20875000</v>
@@ -12990,10 +12990,10 @@
     </row>
     <row r="433" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C433" s="1">
         <v>0</v>
@@ -13019,13 +13019,13 @@
         <v>10</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C434" s="1">
         <v>2150</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E434" s="1">
         <v>40000</v>
@@ -13042,10 +13042,10 @@
     </row>
     <row r="435" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C435" s="1">
         <v>0</v>
@@ -13071,13 +13071,13 @@
         <v>10</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C436" s="1">
         <v>12</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E436" s="1">
         <v>62670000</v>
@@ -13097,13 +13097,13 @@
         <v>10</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C437" s="1">
         <v>1</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E437" s="1">
         <v>65000000</v>
@@ -13120,10 +13120,10 @@
     </row>
     <row r="438" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C438" s="1">
         <v>0</v>
@@ -13149,13 +13149,13 @@
         <v>10</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C439" s="1">
         <v>12</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E439" s="1">
         <v>1000000</v>
@@ -13172,10 +13172,10 @@
     </row>
     <row r="440" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C440" s="1">
         <v>0</v>
@@ -13201,13 +13201,13 @@
         <v>10</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C441" s="1">
         <v>12</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E441" s="1">
         <v>12500000</v>
@@ -13224,10 +13224,10 @@
     </row>
     <row r="442" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C442" s="1">
         <v>0</v>
@@ -13253,13 +13253,13 @@
         <v>10</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C443" s="1">
         <v>560</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E443" s="1">
         <v>150000</v>
@@ -13279,13 +13279,13 @@
         <v>10</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C444" s="1">
         <v>4</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E444" s="1">
         <v>11000000</v>
@@ -13302,10 +13302,10 @@
     </row>
     <row r="445" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C445" s="1">
         <v>0</v>
@@ -13331,13 +13331,13 @@
         <v>10</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C446" s="1">
         <v>134</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E446" s="1">
         <v>150000</v>
@@ -13354,10 +13354,10 @@
     </row>
     <row r="447" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C447" s="1">
         <v>0</v>
@@ -13380,10 +13380,10 @@
     </row>
     <row r="448" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C448" s="1">
         <v>0</v>
@@ -13409,13 +13409,13 @@
         <v>10</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C449" s="1">
         <v>12</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E449" s="1">
         <v>3420000</v>
@@ -13435,13 +13435,13 @@
         <v>10</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C450" s="1">
         <v>12</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E450" s="1">
         <v>1520000</v>
@@ -13461,13 +13461,13 @@
         <v>10</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C451" s="1">
         <v>12</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E451" s="1">
         <v>3320000</v>
@@ -13487,13 +13487,13 @@
         <v>10</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C452" s="1">
         <v>12</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E452" s="1">
         <v>1320000</v>
@@ -13513,13 +13513,13 @@
         <v>10</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C453" s="1">
         <v>12</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E453" s="1">
         <v>1070000</v>
@@ -13539,13 +13539,13 @@
         <v>10</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C454" s="1">
         <v>12</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E454" s="1">
         <v>880000</v>
@@ -13565,13 +13565,13 @@
         <v>10</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C455" s="1">
         <v>24</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E455" s="1">
         <v>980000</v>
@@ -13591,13 +13591,13 @@
         <v>10</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C456" s="1">
         <v>12</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E456" s="1">
         <v>640000</v>
@@ -13617,13 +13617,13 @@
         <v>10</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C457" s="1">
         <v>12</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E457" s="1">
         <v>300000</v>
@@ -13643,13 +13643,13 @@
         <v>10</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C458" s="1">
         <v>12</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E458" s="1">
         <v>250000</v>
@@ -13669,13 +13669,13 @@
         <v>10</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C459" s="1">
         <v>12</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E459" s="1">
         <v>150000</v>
@@ -13695,13 +13695,13 @@
         <v>10</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C460" s="1">
         <v>12</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E460" s="1">
         <v>300000</v>
@@ -13721,13 +13721,13 @@
         <v>10</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C461" s="1">
         <v>12</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E461" s="1">
         <v>980000</v>
